--- a/score_model.xlsx
+++ b/score_model.xlsx
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4231,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F193" t="n">
         <v>0.4</v>
@@ -4248,16 +4248,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F194" t="n">
         <v>0.4</v>
@@ -4271,13 +4271,13 @@
         <v>10</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F195" t="n">
         <v>0.4</v>
@@ -4291,13 +4291,13 @@
         <v>5</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F196" t="n">
         <v>0.4</v>
@@ -4308,10 +4308,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D197" t="n">
         <v>2</v>
@@ -4328,19 +4328,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
+        <v>12</v>
+      </c>
+      <c r="C198" t="n">
         <v>5</v>
       </c>
-      <c r="C198" t="n">
-        <v>4</v>
-      </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4348,7 +4348,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C199" t="n">
         <v>8</v>
@@ -4357,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4368,16 +4368,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="F200" t="n">
         <v>0.41</v>
@@ -4388,19 +4388,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C201" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
       </c>
       <c r="E201" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.42</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4408,7 +4408,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C202" t="n">
         <v>8</v>
@@ -4417,10 +4417,10 @@
         <v>2</v>
       </c>
       <c r="E202" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F202" t="n">
         <v>0.42</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4428,19 +4428,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C203" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D203" t="n">
         <v>2</v>
       </c>
       <c r="E203" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="F203" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4448,16 +4448,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D204" t="n">
         <v>2</v>
       </c>
       <c r="E204" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F204" t="n">
         <v>0.42</v>
@@ -4468,16 +4468,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C205" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
       </c>
       <c r="E205" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F205" t="n">
         <v>0.42</v>
@@ -4488,19 +4488,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="F206" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4508,7 +4508,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" t="n">
         <v>8</v>
@@ -4517,10 +4517,10 @@
         <v>2</v>
       </c>
       <c r="E207" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="F207" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4528,19 +4528,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="F208" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4551,16 +4551,16 @@
         <v>9</v>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F209" t="n">
         <v>0.44</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4568,19 +4568,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C210" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F210" t="n">
         <v>0.44</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4588,19 +4588,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
         <v>2</v>
       </c>
       <c r="E211" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F211" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4608,19 +4608,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C212" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D212" t="n">
         <v>2</v>
       </c>
       <c r="E212" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F212" t="n">
         <v>0.45</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.43</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4628,19 +4628,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C213" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
       </c>
       <c r="E213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F213" t="n">
         <v>0.45</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.43</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4648,19 +4648,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C214" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
         <v>2</v>
       </c>
       <c r="E214" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F214" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4668,19 +4668,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C215" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F215" t="n">
         <v>0.47</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.43</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4688,19 +4688,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E216" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F216" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4708,19 +4708,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4728,19 +4728,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4748,19 +4748,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
+        <v>5</v>
+      </c>
+      <c r="C219" t="n">
         <v>3</v>
       </c>
-      <c r="C219" t="n">
-        <v>2</v>
-      </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F219" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4768,878 +4768,18 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B221" t="n">
-        <v>6</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B222" t="n">
-        <v>15</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4</v>
-      </c>
-      <c r="D222" t="n">
-        <v>3</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B223" t="n">
-        <v>23</v>
-      </c>
-      <c r="C223" t="n">
-        <v>11</v>
-      </c>
-      <c r="D223" t="n">
-        <v>2</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B224" t="n">
-        <v>10</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5</v>
-      </c>
-      <c r="D224" t="n">
-        <v>2</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B225" t="n">
-        <v>6</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B226" t="n">
-        <v>20</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6</v>
-      </c>
-      <c r="D226" t="n">
-        <v>3</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7</v>
-      </c>
-      <c r="C227" t="n">
-        <v>2</v>
-      </c>
-      <c r="D227" t="n">
-        <v>3</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B228" t="n">
-        <v>14</v>
-      </c>
-      <c r="C228" t="n">
-        <v>7</v>
-      </c>
-      <c r="D228" t="n">
-        <v>2</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B229" t="n">
-        <v>12</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6</v>
-      </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B230" t="n">
-        <v>14</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4</v>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B231" t="n">
-        <v>18</v>
-      </c>
-      <c r="C231" t="n">
-        <v>9</v>
-      </c>
-      <c r="D231" t="n">
-        <v>2</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B232" t="n">
-        <v>16</v>
-      </c>
-      <c r="C232" t="n">
-        <v>8</v>
-      </c>
-      <c r="D232" t="n">
-        <v>2</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B233" t="n">
-        <v>4</v>
-      </c>
-      <c r="C233" t="n">
-        <v>2</v>
-      </c>
-      <c r="D233" t="n">
-        <v>2</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13</v>
-      </c>
-      <c r="C234" t="n">
-        <v>4</v>
-      </c>
-      <c r="D234" t="n">
-        <v>3</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="n">
-        <v>19</v>
-      </c>
-      <c r="C235" t="n">
-        <v>6</v>
-      </c>
-      <c r="D235" t="n">
-        <v>3</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B236" t="n">
-        <v>13</v>
-      </c>
-      <c r="C236" t="n">
-        <v>7</v>
-      </c>
-      <c r="D236" t="n">
-        <v>2</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B238" t="n">
-        <v>17</v>
-      </c>
-      <c r="C238" t="n">
-        <v>9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>2</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B239" t="n">
-        <v>18</v>
-      </c>
-      <c r="C239" t="n">
-        <v>6</v>
-      </c>
-      <c r="D239" t="n">
-        <v>3</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B240" t="n">
-        <v>6</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2</v>
-      </c>
-      <c r="D240" t="n">
-        <v>3</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B241" t="n">
-        <v>21</v>
-      </c>
-      <c r="C241" t="n">
-        <v>7</v>
-      </c>
-      <c r="D241" t="n">
-        <v>3</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B242" t="n">
-        <v>12</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4</v>
-      </c>
-      <c r="D242" t="n">
-        <v>3</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="n">
-        <v>9</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5</v>
-      </c>
-      <c r="D243" t="n">
-        <v>2</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B244" t="n">
-        <v>11</v>
-      </c>
-      <c r="C244" t="n">
-        <v>6</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B245" t="n">
-        <v>17</v>
-      </c>
-      <c r="C245" t="n">
-        <v>6</v>
-      </c>
-      <c r="D245" t="n">
-        <v>3</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" t="n">
-        <v>23</v>
-      </c>
-      <c r="C246" t="n">
-        <v>8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>3</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B247" t="n">
-        <v>16</v>
-      </c>
-      <c r="C247" t="n">
-        <v>9</v>
-      </c>
-      <c r="D247" t="n">
-        <v>2</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B248" t="n">
-        <v>20</v>
-      </c>
-      <c r="C248" t="n">
-        <v>7</v>
-      </c>
-      <c r="D248" t="n">
-        <v>3</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B249" t="n">
-        <v>11</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B250" t="n">
-        <v>19</v>
-      </c>
-      <c r="C250" t="n">
-        <v>7</v>
-      </c>
-      <c r="D250" t="n">
-        <v>3</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B251" t="n">
-        <v>24</v>
-      </c>
-      <c r="C251" t="n">
-        <v>9</v>
-      </c>
-      <c r="D251" t="n">
-        <v>3</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B252" t="n">
-        <v>16</v>
-      </c>
-      <c r="C252" t="n">
-        <v>6</v>
-      </c>
-      <c r="D252" t="n">
-        <v>3</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F252" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B253" t="n">
-        <v>18</v>
-      </c>
-      <c r="C253" t="n">
-        <v>7</v>
-      </c>
-      <c r="D253" t="n">
-        <v>3</v>
-      </c>
-      <c r="E253" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B254" t="n">
-        <v>23</v>
-      </c>
-      <c r="C254" t="n">
-        <v>9</v>
-      </c>
-      <c r="D254" t="n">
-        <v>3</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B255" t="n">
-        <v>5</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4</v>
-      </c>
-      <c r="D255" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B256" t="n">
-        <v>3</v>
-      </c>
-      <c r="C256" t="n">
-        <v>3</v>
-      </c>
-      <c r="D256" t="n">
-        <v>0</v>
-      </c>
-      <c r="E256" t="n">
-        <v>1</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B257" t="n">
-        <v>10</v>
-      </c>
-      <c r="C257" t="n">
-        <v>6</v>
-      </c>
-      <c r="D257" t="n">
-        <v>2</v>
-      </c>
-      <c r="E257" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F257" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B258" t="n">
-        <v>5</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3</v>
-      </c>
-      <c r="D258" t="n">
-        <v>2</v>
-      </c>
-      <c r="E258" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F258" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B259" t="n">
-        <v>10</v>
-      </c>
-      <c r="C259" t="n">
-        <v>4</v>
-      </c>
-      <c r="D259" t="n">
-        <v>3</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B260" t="n">
-        <v>17</v>
-      </c>
-      <c r="C260" t="n">
-        <v>7</v>
-      </c>
-      <c r="D260" t="n">
-        <v>3</v>
-      </c>
-      <c r="E260" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F260" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B261" t="n">
-        <v>9</v>
-      </c>
-      <c r="C261" t="n">
-        <v>4</v>
-      </c>
-      <c r="D261" t="n">
-        <v>3</v>
-      </c>
-      <c r="E261" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B262" t="n">
-        <v>9</v>
-      </c>
-      <c r="C262" t="n">
-        <v>6</v>
-      </c>
-      <c r="D262" t="n">
-        <v>2</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F262" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B263" t="n">
-        <v>3</v>
-      </c>
-      <c r="C263" t="n">
-        <v>3</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1</v>
-      </c>
-      <c r="E263" t="n">
-        <v>1</v>
-      </c>
-      <c r="F263" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/score_model.xlsx
+++ b/score_model.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +29,7 @@
     <t>plain_eff</t>
   </si>
   <si>
-    <t>complex_eff</t>
+    <t>complex_eff_1</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,7 +386,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +402,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -422,8 +425,11 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -442,8 +448,11 @@
       <c r="F3" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -462,8 +471,11 @@
       <c r="F4" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -482,13 +494,16 @@
       <c r="F5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -497,21 +512,24 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -522,68 +540,80 @@
       <c r="F7" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -602,8 +632,11 @@
       <c r="F11" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -622,8 +655,11 @@
       <c r="F12" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -642,8 +678,11 @@
       <c r="F13" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -662,56 +701,65 @@
       <c r="F14" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F15" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -722,16 +770,19 @@
       <c r="F17" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -742,8 +793,11 @@
       <c r="F18" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -762,56 +816,65 @@
       <c r="F19" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F20" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F21" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -822,13 +885,16 @@
       <c r="F22" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
         <v>5</v>
@@ -837,13 +903,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="F23" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -862,16 +931,19 @@
       <c r="F24" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -882,88 +954,103 @@
       <c r="F25" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F27" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F28" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F29" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -982,16 +1069,19 @@
       <c r="F30" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1002,56 +1092,65 @@
       <c r="F31" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F32" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F33" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1062,16 +1161,19 @@
       <c r="F34" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1082,16 +1184,19 @@
       <c r="F35" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1102,16 +1207,19 @@
       <c r="F36" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1122,56 +1230,65 @@
       <c r="F37" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="n">
         <v>6</v>
       </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F38" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F39" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1182,8 +1299,11 @@
       <c r="F40" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -1202,56 +1322,65 @@
       <c r="F41" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F42" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F43" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1262,8 +1391,11 @@
       <c r="F44" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -1282,16 +1414,19 @@
       <c r="F45" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1302,16 +1437,19 @@
       <c r="F46" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1322,8 +1460,11 @@
       <c r="F47" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -1342,68 +1483,80 @@
       <c r="F48" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F49" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="F50" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F51" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -1422,28 +1575,34 @@
       <c r="F52" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F53" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -1462,16 +1621,19 @@
       <c r="F54" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1482,28 +1644,34 @@
       <c r="F55" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -1522,16 +1690,19 @@
       <c r="F57" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1542,16 +1713,19 @@
       <c r="F58" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1562,28 +1736,34 @@
       <c r="F59" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F60" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -1602,16 +1782,19 @@
       <c r="F61" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1622,28 +1805,34 @@
       <c r="F62" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="F63" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -1662,16 +1851,19 @@
       <c r="F64" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1682,16 +1874,19 @@
       <c r="F65" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1702,8 +1897,11 @@
       <c r="F66" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -1722,116 +1920,134 @@
       <c r="F67" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="F68" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="F69" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="F70" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F71" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="F72" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1842,8 +2058,11 @@
       <c r="F73" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -1862,28 +2081,34 @@
       <c r="F74" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="F75" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -1902,56 +2127,65 @@
       <c r="F76" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="F77" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="F78" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1962,8 +2196,11 @@
       <c r="F79" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -1982,16 +2219,19 @@
       <c r="F80" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2002,36 +2242,42 @@
       <c r="F81" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F82" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2042,8 +2288,11 @@
       <c r="F83" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -2062,36 +2311,42 @@
       <c r="F84" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F85" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2102,16 +2357,19 @@
       <c r="F86" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2122,16 +2380,19 @@
       <c r="F87" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2142,16 +2403,19 @@
       <c r="F88" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2162,8 +2426,11 @@
       <c r="F89" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -2182,8 +2449,11 @@
       <c r="F90" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -2202,8 +2472,11 @@
       <c r="F91" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -2222,8 +2495,11 @@
       <c r="F92" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -2242,36 +2518,42 @@
       <c r="F93" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="F94" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -2282,16 +2564,19 @@
       <c r="F95" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2302,28 +2587,34 @@
       <c r="F96" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="F97" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -2342,16 +2633,19 @@
       <c r="F98" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2362,16 +2656,19 @@
       <c r="F99" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2382,8 +2679,11 @@
       <c r="F100" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -2402,36 +2702,42 @@
       <c r="F101" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C102" t="n">
         <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="F102" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2442,196 +2748,226 @@
       <c r="F103" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="F104" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F105" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F106" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F107" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F108" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F109" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F110" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F111" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F112" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2642,8 +2978,11 @@
       <c r="F113" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -2662,8 +3001,11 @@
       <c r="F114" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -2682,8 +3024,11 @@
       <c r="F115" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -2702,8 +3047,11 @@
       <c r="F116" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -2711,139 +3059,160 @@
         <v>10</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F117" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F118" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="F119" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F120" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="F121" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F122" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="F123" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
@@ -2862,8 +3231,11 @@
       <c r="F124" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
@@ -2871,39 +3243,45 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F125" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F126" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
@@ -2922,8 +3300,11 @@
       <c r="F127" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
@@ -2942,8 +3323,11 @@
       <c r="F128" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
@@ -2962,8 +3346,11 @@
       <c r="F129" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
@@ -2982,36 +3369,42 @@
       <c r="F130" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C131" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F131" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3022,56 +3415,65 @@
       <c r="F132" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="F133" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F134" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3082,36 +3484,42 @@
       <c r="F135" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="F136" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3122,208 +3530,241 @@
       <c r="F137" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F138" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="F139" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="F140" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F141" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="F142" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C143" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="F143" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="F144" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F145" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
         <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="F146" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>0.48</v>
+        <v>0.29</v>
       </c>
       <c r="F147" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
@@ -3342,68 +3783,80 @@
       <c r="F148" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
       <c r="F149" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="F150" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="F151" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
@@ -3422,76 +3875,88 @@
       <c r="F152" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="F153" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="F154" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C155" t="n">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F155" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -3502,36 +3967,42 @@
       <c r="F156" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="F157" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3542,16 +4013,19 @@
       <c r="F158" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -3562,16 +4036,19 @@
       <c r="F159" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3582,96 +4059,111 @@
       <c r="F160" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F161" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="F162" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
         <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F163" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F164" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C165" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -3682,36 +4174,42 @@
       <c r="F165" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="F166" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -3722,36 +4220,42 @@
       <c r="F167" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="F168" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
@@ -3762,16 +4266,19 @@
       <c r="F169" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B170" t="n">
+        <v>18</v>
+      </c>
+      <c r="C170" t="n">
         <v>6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
@@ -3782,16 +4289,19 @@
       <c r="F170" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
         <v>2</v>
@@ -3802,36 +4312,42 @@
       <c r="F171" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
         <v>2</v>
       </c>
       <c r="E172" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="F172" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C173" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D173" t="n">
         <v>2</v>
@@ -3842,8 +4358,11 @@
       <c r="F173" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
@@ -3862,128 +4381,149 @@
       <c r="F174" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="F175" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="F176" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="F177" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F178" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="F179" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="F180" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1" t="n">
         <v>180</v>
       </c>
@@ -4002,56 +4542,65 @@
       <c r="F181" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F182" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="F183" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D184" t="n">
         <v>2</v>
@@ -4062,56 +4611,65 @@
       <c r="F184" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D185" t="n">
         <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F185" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="F186" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C187" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D187" t="n">
         <v>2</v>
@@ -4122,48 +4680,57 @@
       <c r="F187" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="F188" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F189" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="n">
         <v>189</v>
       </c>
@@ -4182,56 +4749,65 @@
       <c r="F190" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D191" t="n">
         <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F191" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>0.39</v>
+        <v>0.8</v>
       </c>
       <c r="F192" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -4242,16 +4818,19 @@
       <c r="F193" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -4262,8 +4841,11 @@
       <c r="F194" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="n">
         <v>194</v>
       </c>
@@ -4282,36 +4864,42 @@
       <c r="F195" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F196" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C197" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
         <v>2</v>
@@ -4322,28 +4910,34 @@
       <c r="F197" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
         <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F198" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1" t="n">
         <v>198</v>
       </c>
@@ -4362,36 +4956,42 @@
       <c r="F199" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
         <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F200" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C201" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
@@ -4402,16 +5002,19 @@
       <c r="F201" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C202" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D202" t="n">
         <v>2</v>
@@ -4422,16 +5025,19 @@
       <c r="F202" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D203" t="n">
         <v>2</v>
@@ -4442,16 +5048,19 @@
       <c r="F203" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D204" t="n">
         <v>2</v>
@@ -4462,16 +5071,19 @@
       <c r="F204" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C205" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
@@ -4482,56 +5094,65 @@
       <c r="F205" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C206" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D206" t="n">
         <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F206" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C207" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D207" t="n">
         <v>2</v>
       </c>
       <c r="E207" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="F207" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C208" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -4542,16 +5163,19 @@
       <c r="F208" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -4562,8 +5186,11 @@
       <c r="F209" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1" t="n">
         <v>209</v>
       </c>
@@ -4582,16 +5209,19 @@
       <c r="F210" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C211" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
         <v>2</v>
@@ -4602,8 +5232,11 @@
       <c r="F211" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1" t="n">
         <v>211</v>
       </c>
@@ -4622,16 +5255,19 @@
       <c r="F212" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
@@ -4642,16 +5278,19 @@
       <c r="F213" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D214" t="n">
         <v>2</v>
@@ -4662,8 +5301,11 @@
       <c r="F214" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1" t="n">
         <v>214</v>
       </c>
@@ -4682,8 +5324,11 @@
       <c r="F215" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1" t="n">
         <v>215</v>
       </c>
@@ -4702,48 +5347,57 @@
       <c r="F216" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F218" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1" t="n">
         <v>218</v>
       </c>
@@ -4762,8 +5416,11 @@
       <c r="F219" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1" t="n">
         <v>219</v>
       </c>
@@ -4781,6 +5438,9 @@
       </c>
       <c r="F220" t="n">
         <v>0.6</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
